--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Light-mantled Albatross_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Light-mantled Albatross_Prince Edward Islands.xlsx
@@ -4201,13 +4201,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91D99E85-6B87-4C73-96A7-CBE0EBA4B966}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{725A5A3A-5D7D-4028-8F29-48C8E6113772}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{581CE861-878F-47C2-A755-76F8887095EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715FBA02-443A-4AE2-810D-736FBFB5AB85}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E57E3A-3FDE-4355-80FB-702606131315}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB00D56B-B753-4D98-A08C-964F803DAE0F}"/>
 </file>